--- a/atmung/Aufgabe2.xlsx
+++ b/atmung/Aufgabe2.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huyenanh/git_repos/PPP_Latex/atmung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCACEC6C-098B-E04D-B7AB-E78EAF4CE565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5602444B-0FA9-A743-812C-08FAB27DD7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="1660" windowWidth="27560" windowHeight="16940" xr2:uid="{2D897629-E6FF-2149-BD0B-B763647B8054}"/>
+    <workbookView xWindow="2640" yWindow="1880" windowWidth="27560" windowHeight="16940" activeTab="1" xr2:uid="{2D897629-E6FF-2149-BD0B-B763647B8054}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="47">
   <si>
     <t>ß in mg/L</t>
   </si>
@@ -68,25 +69,13 @@
     <t>M(Glucose)</t>
   </si>
   <si>
+    <t>g/L</t>
+  </si>
+  <si>
     <t>o2</t>
   </si>
   <si>
     <t>Glucose</t>
-  </si>
-  <si>
-    <t>m(hefe)</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>glucoseverbrauch Pro 1g Hefe</t>
-  </si>
-  <si>
-    <t>o2verbrauch pro 1g hefe</t>
-  </si>
-  <si>
-    <t>µM/s</t>
   </si>
   <si>
     <t>mg/Ls</t>
@@ -98,16 +87,10 @@
     <t>mol/Ls</t>
   </si>
   <si>
-    <t>mM/s</t>
-  </si>
-  <si>
     <t>c = ß/M</t>
   </si>
   <si>
     <t>ß = c *M</t>
-  </si>
-  <si>
-    <t>µg/s</t>
   </si>
   <si>
     <t>mg/L s</t>
@@ -116,22 +99,85 @@
     <t>O2 verbrauch/Slope</t>
   </si>
   <si>
-    <t>m(BY2)</t>
-  </si>
-  <si>
     <t>g/L s</t>
   </si>
   <si>
     <t>mol/L s</t>
   </si>
   <si>
-    <t>glucose</t>
+    <t>mg/Lmin</t>
   </si>
   <si>
-    <t>glukoseverbrauch pro 1g Pflanzenzellen</t>
+    <t>g/L min</t>
   </si>
   <si>
-    <t>o2verbrauch pro 1g Pflanzenzellen</t>
+    <t>µg/min g</t>
+  </si>
+  <si>
+    <t>c(hefe)</t>
+  </si>
+  <si>
+    <t>c(BY2)</t>
+  </si>
+  <si>
+    <t>Verbrauch</t>
+  </si>
+  <si>
+    <t>M/min</t>
+  </si>
+  <si>
+    <t>mM/min</t>
+  </si>
+  <si>
+    <t>O2 Verbrauch</t>
+  </si>
+  <si>
+    <t>Glucose+</t>
+  </si>
+  <si>
+    <t>mmol/min</t>
+  </si>
+  <si>
+    <t>mmol/min g</t>
+  </si>
+  <si>
+    <t>Glucose µL</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Mean E</t>
+  </si>
+  <si>
+    <t>unbekannte probe</t>
+  </si>
+  <si>
+    <t>µg</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>WT</t>
+  </si>
+  <si>
+    <t>antisense</t>
+  </si>
+  <si>
+    <t>delta E</t>
+  </si>
+  <si>
+    <t>µg Glucose</t>
+  </si>
+  <si>
+    <t>M Glucose</t>
+  </si>
+  <si>
+    <t>mM Glucose</t>
+  </si>
+  <si>
+    <t>µg Glucose pro mg frisch</t>
   </si>
 </sst>
 </file>
@@ -161,12 +207,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -181,11 +239,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -248,6 +308,56 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.42111837907845162"/>
+                  <c:y val="-0.35438925533858584"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$B$5:$B$28</c:f>
@@ -552,15 +662,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -733,7 +834,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="38100" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -863,6 +964,166 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-28C8-DC40-9156-2FF2FD7BFD0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.13494617594370945"/>
+                  <c:y val="7.3591012308483944E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$9:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>420</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$9:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.97</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.84</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.7699999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-28C8-DC40-9156-2FF2FD7BFD0D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -998,6 +1259,7 @@
         <c:axId val="545078527"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="7"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1213,6 +1475,56 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.34801578161729929"/>
+                  <c:y val="-0.22673002994157104"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$H$5:$H$14</c:f>
@@ -1640,6 +1952,56 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.26927362539405691"/>
+                  <c:y val="-0.17887870121444205"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$K$5:$K$14</c:f>
@@ -2075,9 +2437,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>ohne KCN</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="38100" cap="rnd">
               <a:noFill/>
@@ -2100,80 +2459,103 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="20"/>
+            <c:backward val="20"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.5341207349081365E-3"/>
+                  <c:y val="-0.14856481481481482"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$5:$H$14</c:f>
+              <c:f>Sheet2!$B$5:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>7.2060000000000013</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>14.412000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90</c:v>
+                  <c:v>21.618000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>120</c:v>
+                  <c:v>28.824000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>300</c:v>
+                  <c:v>36.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$5:$I$14</c:f>
+              <c:f>Sheet2!$F$5:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>8.09</c:v>
+                  <c:v>0.42249999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0299999999999994</c:v>
+                  <c:v>0.54600000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.96</c:v>
+                  <c:v>0.90500000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.93</c:v>
+                  <c:v>1.1475</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.87</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.83</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.82</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.73</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.69</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.64</c:v>
+                  <c:v>1.2190000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2181,120 +2563,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8CFA-3B4F-B436-7A89C81EFE11}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>mit KCN</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$K$5:$K$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$L$5:$L$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>7.61</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.56</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.48</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.41</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.36</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.23</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.16</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.08</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.01</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8CFA-3B4F-B436-7A89C81EFE11}"/>
+              <c16:uniqueId val="{00000000-9B7C-7C4B-9F00-C5C9D9563BB9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2306,11 +2575,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1030464319"/>
-        <c:axId val="1030474127"/>
+        <c:axId val="1029962639"/>
+        <c:axId val="1030209791"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1030464319"/>
+        <c:axId val="1029962639"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2367,12 +2636,12 @@
             <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1030474127"/>
+        <c:crossAx val="1030209791"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1030474127"/>
+        <c:axId val="1030209791"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2429,7 +2698,7 @@
             <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1030464319"/>
+        <c:crossAx val="1029962639"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2441,37 +2710,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -5338,13 +5576,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5372,13 +5610,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>469900</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -5408,15 +5646,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5442,25 +5680,30 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>755650</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{569A1BA9-F1B9-7C43-0157-C6943E604536}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{377EB310-D4C1-6551-A41D-C2F0BD71D1AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5472,7 +5715,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5798,17 +6041,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2514CDF9-AD72-B64A-9ADA-7E898E419F24}">
-  <dimension ref="B3:S58"/>
+  <dimension ref="B3:W59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E37" workbookViewId="0">
-      <selection activeCell="R52" sqref="R52"/>
+    <sheetView topLeftCell="F20" zoomScale="116" workbookViewId="0">
+      <selection activeCell="V57" sqref="V57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:12">
@@ -6136,7 +6382,7 @@
         <v>4.84</v>
       </c>
     </row>
-    <row r="17" spans="2:19">
+    <row r="17" spans="2:23">
       <c r="B17">
         <v>450</v>
       </c>
@@ -6150,7 +6396,7 @@
         <v>4.8099999999999996</v>
       </c>
     </row>
-    <row r="18" spans="2:19">
+    <row r="18" spans="2:23">
       <c r="B18">
         <v>480</v>
       </c>
@@ -6164,7 +6410,7 @@
         <v>4.7699999999999996</v>
       </c>
     </row>
-    <row r="19" spans="2:19">
+    <row r="19" spans="2:23">
       <c r="B19">
         <v>510</v>
       </c>
@@ -6178,7 +6424,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="20" spans="2:19">
+    <row r="20" spans="2:23">
       <c r="B20">
         <v>540</v>
       </c>
@@ -6186,7 +6432,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="21" spans="2:19">
+    <row r="21" spans="2:23">
       <c r="B21">
         <v>570</v>
       </c>
@@ -6194,7 +6440,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="22" spans="2:19">
+    <row r="22" spans="2:23">
       <c r="B22">
         <v>600</v>
       </c>
@@ -6202,7 +6448,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="23" spans="2:19">
+    <row r="23" spans="2:23">
       <c r="B23">
         <v>630</v>
       </c>
@@ -6210,7 +6456,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="24" spans="2:19">
+    <row r="24" spans="2:23">
       <c r="B24">
         <v>660</v>
       </c>
@@ -6218,7 +6464,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="25" spans="2:19">
+    <row r="25" spans="2:23">
       <c r="B25">
         <v>690</v>
       </c>
@@ -6226,7 +6472,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="26" spans="2:19">
+    <row r="26" spans="2:23">
       <c r="B26">
         <v>720</v>
       </c>
@@ -6243,10 +6489,10 @@
         <v>8</v>
       </c>
       <c r="K26" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="27" spans="2:19">
+    <row r="27" spans="2:23">
       <c r="B27">
         <v>750</v>
       </c>
@@ -6263,10 +6509,10 @@
         <v>8</v>
       </c>
       <c r="K27" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="28" spans="2:19">
+    <row r="28" spans="2:23">
       <c r="B28">
         <v>780</v>
       </c>
@@ -6274,253 +6520,707 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I28">
-        <v>0.52</v>
+        <f>0.52/0.3</f>
+        <v>1.7333333333333334</v>
       </c>
       <c r="J28" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="29" spans="2:19">
+    <row r="29" spans="2:23">
       <c r="H29" t="s">
         <v>26</v>
       </c>
       <c r="I29">
-        <v>5.25</v>
+        <f>5.25/0.15</f>
+        <v>35</v>
       </c>
       <c r="J29" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="31" spans="2:19">
-      <c r="R31" t="s">
-        <v>25</v>
+    <row r="31" spans="2:23">
+      <c r="T31" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="32" spans="2:19">
+    <row r="32" spans="2:23">
       <c r="H32" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I32" s="3"/>
-      <c r="R32">
+      <c r="T32">
         <f>ABS(SLOPE(I5:I14,H5:H14))</f>
         <v>1.6060606060606041E-3</v>
       </c>
-      <c r="S32" t="s">
-        <v>24</v>
+      <c r="U32" t="s">
+        <v>18</v>
+      </c>
+      <c r="V32">
+        <f>T32*60</f>
+        <v>9.6363636363636249E-2</v>
+      </c>
+      <c r="W32" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="33" spans="8:19">
+    <row r="33" spans="8:23">
       <c r="H33" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I33" s="3"/>
-      <c r="R33">
-        <f>R32/1000</f>
+      <c r="T33">
+        <f>T32/1000</f>
         <v>1.6060606060606041E-6</v>
       </c>
-      <c r="S33" t="s">
-        <v>27</v>
+      <c r="U33" t="s">
+        <v>20</v>
+      </c>
+      <c r="V33">
+        <f>T33*60</f>
+        <v>9.636363636363625E-5</v>
+      </c>
+      <c r="W33" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="34" spans="8:19">
+    <row r="34" spans="8:23">
       <c r="H34" s="3">
         <f>ABS(SLOPE(C5:C25,B5:B25))</f>
         <v>8.9965367965367977E-3</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R34">
-        <f>R33/I26</f>
+        <v>13</v>
+      </c>
+      <c r="J34">
+        <f>H34*60</f>
+        <v>0.53979220779220782</v>
+      </c>
+      <c r="K34" t="s">
+        <v>22</v>
+      </c>
+      <c r="T34">
+        <f>T33/I26</f>
         <v>1.0038506194515932E-7</v>
       </c>
-      <c r="S34" t="s">
+      <c r="U34" t="s">
+        <v>21</v>
+      </c>
+      <c r="V34">
+        <f>T34*60</f>
+        <v>6.023103716709559E-6</v>
+      </c>
+      <c r="W34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="8:19">
+    <row r="35" spans="8:23">
       <c r="H35" s="3">
         <f>H34/1000</f>
         <v>8.9965367965367981E-6</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="J35">
+        <f>H35*60</f>
+        <v>5.397922077922079E-4</v>
+      </c>
+      <c r="K35" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="36" spans="8:19">
+    <row r="36" spans="8:23">
       <c r="H36" s="3">
         <f>H35/$I$26</f>
         <v>5.6231869470196876E-7</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R36" t="s">
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="J36">
+        <f>H36*60</f>
+        <v>3.3739121682118127E-5</v>
+      </c>
+      <c r="K36" t="s">
+        <v>28</v>
+      </c>
+      <c r="U36" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="37" spans="8:19">
+    <row r="37" spans="8:23">
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
-      <c r="R37">
-        <f>R34/6</f>
-        <v>1.6730843657526553E-8</v>
-      </c>
-      <c r="S37" t="s">
+      <c r="U37" t="s">
+        <v>27</v>
+      </c>
+      <c r="V37">
+        <f>V34/6</f>
+        <v>1.0038506194515932E-6</v>
+      </c>
+      <c r="W37" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="8:19">
-      <c r="H38" s="3" t="s">
+    <row r="38" spans="8:23">
+      <c r="H38" s="3"/>
+      <c r="I38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V38">
+        <f>V37*1000</f>
+        <v>1.0038506194515932E-3</v>
+      </c>
+      <c r="W38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="8:23">
+      <c r="H39" s="3"/>
+      <c r="I39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J39">
+        <f>J36/6</f>
+        <v>5.6231869470196876E-6</v>
+      </c>
+      <c r="K39" t="s">
+        <v>28</v>
+      </c>
+      <c r="V39">
+        <f>V38/I29</f>
+        <v>2.868144627004552E-5</v>
+      </c>
+      <c r="W39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="8:23">
+      <c r="J40">
+        <f>J39*1000</f>
+        <v>5.623186947019688E-3</v>
+      </c>
+      <c r="K40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="8:23">
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41">
+        <f>J40/I28</f>
+        <v>3.2441463155882815E-3</v>
+      </c>
+      <c r="K41" t="s">
+        <v>33</v>
+      </c>
+      <c r="U41" t="s">
+        <v>30</v>
+      </c>
+      <c r="V41">
+        <f>V32*1000/I29</f>
+        <v>2.7532467532467497</v>
+      </c>
+      <c r="W41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="8:23">
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="8:23">
+      <c r="H43" s="2"/>
+      <c r="I43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J43">
+        <f>J34*1000/I28</f>
+        <v>311.41858141858143</v>
+      </c>
+      <c r="K43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="8:23">
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="8:23">
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="47" spans="8:23">
+      <c r="H47" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="8:19">
-      <c r="H39" s="3">
-        <f>H36/6</f>
-        <v>9.3719782450328122E-8</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="8:19">
-      <c r="H41" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" s="2"/>
-      <c r="R41" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="8:19">
-      <c r="H42" s="2">
-        <f>H39/(I28/0.3)*1000</f>
-        <v>5.4069105259804684E-5</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R42">
-        <f>R37/(5.25/0.15)</f>
-        <v>4.7802410450075861E-10</v>
-      </c>
-      <c r="S42" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="8:19">
-      <c r="H43" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I43" s="2"/>
-      <c r="R43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="8:19">
-      <c r="H44" s="2">
-        <f>((H36/($I$28/0.3))*I26)*1000000</f>
-        <v>5.1903096903096912</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R44">
-        <f>R32*1000</f>
-        <v>1.6060606060606042</v>
-      </c>
-    </row>
-    <row r="46" spans="8:19">
-      <c r="H46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I46" s="3"/>
-    </row>
-    <row r="47" spans="8:19">
-      <c r="H47" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="I47" s="3"/>
     </row>
-    <row r="48" spans="8:19">
-      <c r="H48" s="3">
+    <row r="48" spans="8:23">
+      <c r="H48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I48" s="3"/>
+      <c r="T48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="8:23">
+      <c r="H49" s="3">
         <f>ABS(SLOPE(F9:F17,E9:E17))</f>
         <v>1.5722222222222249E-3</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>17</v>
+      <c r="I49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49">
+        <f>H49*60</f>
+        <v>9.4333333333333491E-2</v>
+      </c>
+      <c r="K49" t="s">
+        <v>22</v>
+      </c>
+      <c r="T49">
+        <f>ABS(SLOPE(L5:L14,K5:K14))</f>
+        <v>2.2141414141414145E-3</v>
+      </c>
+      <c r="U49" t="s">
+        <v>18</v>
+      </c>
+      <c r="V49">
+        <f>T49*60</f>
+        <v>0.13284848484848488</v>
+      </c>
+      <c r="W49" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="49" spans="8:9">
-      <c r="H49" s="3">
-        <f>H48/1000</f>
+    <row r="50" spans="8:23">
+      <c r="H50" s="3">
+        <f>H49/1000</f>
         <v>1.5722222222222249E-6</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>18</v>
+      <c r="I50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J50">
+        <f>H50*60</f>
+        <v>9.433333333333349E-5</v>
+      </c>
+      <c r="K50" t="s">
+        <v>23</v>
+      </c>
+      <c r="T50">
+        <f>T49/1000</f>
+        <v>2.2141414141414145E-6</v>
+      </c>
+      <c r="U50" t="s">
+        <v>20</v>
+      </c>
+      <c r="V50">
+        <f t="shared" ref="V50:V51" si="0">T50*60</f>
+        <v>1.3284848484848487E-4</v>
+      </c>
+      <c r="W50" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="50" spans="8:9">
-      <c r="H50" s="3">
-        <f>H49/$I$26</f>
+    <row r="51" spans="8:23">
+      <c r="H51" s="3">
+        <f>H50/$I$26</f>
         <v>9.827003076581192E-8</v>
       </c>
-      <c r="I50" s="3" t="s">
-        <v>19</v>
+      <c r="I51" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J51">
+        <f>H51*60</f>
+        <v>5.8962018459487152E-6</v>
+      </c>
+      <c r="K51" t="s">
+        <v>28</v>
+      </c>
+      <c r="T51">
+        <f>T50/I26</f>
+        <v>1.3839248791433306E-7</v>
+      </c>
+      <c r="U51" t="s">
+        <v>21</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="0"/>
+        <v>8.3035492748599841E-6</v>
+      </c>
+      <c r="W51" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="51" spans="8:9">
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-    </row>
-    <row r="52" spans="8:9">
-      <c r="H52" s="3" t="s">
-        <v>11</v>
-      </c>
+    <row r="52" spans="8:23">
+      <c r="H52" s="3"/>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="8:9">
-      <c r="H53" s="3">
-        <f>H50/6</f>
-        <v>1.6378338460968652E-8</v>
-      </c>
+    <row r="53" spans="8:23">
+      <c r="H53" s="3"/>
       <c r="I53" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
+      </c>
+      <c r="U53" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="55" spans="8:9">
-      <c r="H55" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I55" s="2"/>
+    <row r="54" spans="8:23">
+      <c r="H54" s="3"/>
+      <c r="I54" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J54">
+        <f>J51/6</f>
+        <v>9.8270030765811928E-7</v>
+      </c>
+      <c r="K54" t="s">
+        <v>28</v>
+      </c>
+      <c r="U54" t="s">
+        <v>27</v>
+      </c>
+      <c r="V54">
+        <f>V51/6</f>
+        <v>1.3839248791433306E-6</v>
+      </c>
+      <c r="W54" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="56" spans="8:9">
-      <c r="H56" s="2">
-        <f>H53/(I28/0.3)</f>
-        <v>9.449041419789607E-9</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>20</v>
+    <row r="55" spans="8:23">
+      <c r="J55">
+        <f>J54*1000</f>
+        <v>9.8270030765811923E-4</v>
+      </c>
+      <c r="K55" t="s">
+        <v>29</v>
+      </c>
+      <c r="V55">
+        <f>V54*1000</f>
+        <v>1.3839248791433305E-3</v>
+      </c>
+      <c r="W55" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="57" spans="8:9">
-      <c r="H57" s="2" t="s">
-        <v>15</v>
-      </c>
+    <row r="56" spans="8:23">
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56">
+        <f>J55/I28</f>
+        <v>5.6694248518737646E-4</v>
+      </c>
+      <c r="K56" t="s">
+        <v>32</v>
+      </c>
+      <c r="V56">
+        <f>V55/I29</f>
+        <v>3.9540710832666584E-5</v>
+      </c>
+      <c r="W56" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="8:23">
+      <c r="H57" s="2"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="8:9">
-      <c r="H58" s="2">
-        <f>((H50/($I$28/0.3))*I26)*1000000</f>
-        <v>0.90705128205128371</v>
-      </c>
+    <row r="58" spans="8:23">
+      <c r="H58" s="2"/>
       <c r="I58" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
+      </c>
+      <c r="J58">
+        <f>J49*1000/I28</f>
+        <v>54.423076923077012</v>
+      </c>
+      <c r="K58" t="s">
+        <v>24</v>
+      </c>
+      <c r="U58" t="s">
+        <v>30</v>
+      </c>
+      <c r="V58">
+        <f>V49*1000/I29</f>
+        <v>3.7956709956709962</v>
+      </c>
+      <c r="W58" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="8:23">
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A3DABD-87C4-2C44-A4EF-D010E01B8643}">
+  <dimension ref="B4:S9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="4" spans="2:19">
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19">
+      <c r="B5">
+        <f>((C5*2/1000000)*180.15/1000)*1000000</f>
+        <v>7.2060000000000013</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="E5">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="F5">
+        <f>AVERAGE(D5:E5)</f>
+        <v>0.42249999999999999</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <f>SLOPE(F5:F9,B5:B9)</f>
+        <v>3.0453788509575353E-2</v>
+      </c>
+      <c r="I5">
+        <v>3.7600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19">
+      <c r="B6">
+        <f t="shared" ref="B6:B9" si="0">((C6*2/1000000)*180.15/1000)*1000000</f>
+        <v>14.412000000000003</v>
+      </c>
+      <c r="C6">
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="E6">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F9" si="1">AVERAGE(D6:E6)</f>
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="K6">
+        <v>0.65</v>
+      </c>
+      <c r="L6">
+        <f>AVERAGE(J6:K6)</f>
+        <v>0.71550000000000002</v>
+      </c>
+      <c r="M6">
+        <f>L6/I5</f>
+        <v>19.029255319148938</v>
+      </c>
+      <c r="N6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19">
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>21.618000000000002</v>
+      </c>
+      <c r="C7">
+        <v>60</v>
+      </c>
+      <c r="D7">
+        <v>0.88</v>
+      </c>
+      <c r="E7">
+        <v>0.93</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="M7">
+        <f>(M6/1000000)/180.15/(20/1000000)</f>
+        <v>5.2815030028168014E-3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>44</v>
+      </c>
+      <c r="R7" t="s">
+        <v>45</v>
+      </c>
+      <c r="S7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19">
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>28.824000000000005</v>
+      </c>
+      <c r="C8">
+        <v>80</v>
+      </c>
+      <c r="D8">
+        <v>1.0620000000000001</v>
+      </c>
+      <c r="E8">
+        <v>1.2330000000000001</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>1.1475</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="J8">
+        <v>0.375</v>
+      </c>
+      <c r="K8" s="4">
+        <f>AVERAGE(I8:J8)</f>
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="L8">
+        <v>0.502</v>
+      </c>
+      <c r="M8">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="N8" s="4">
+        <f>AVERAGE(L8:M8)</f>
+        <v>0.54949999999999999</v>
+      </c>
+      <c r="O8">
+        <f>N8-K8</f>
+        <v>0.16649999999999998</v>
+      </c>
+      <c r="P8" s="5">
+        <f>O8/$I$5</f>
+        <v>4.4281914893617014</v>
+      </c>
+      <c r="Q8">
+        <f>(P8/1000000)/180.15/(20/1000000)</f>
+        <v>1.2290290006554817E-3</v>
+      </c>
+      <c r="R8" s="5">
+        <f>Q8*1000</f>
+        <v>1.2290290006554818</v>
+      </c>
+      <c r="S8">
+        <f>(P8*(500/20))/41.5</f>
+        <v>2.6675852345552418</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19">
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>36.03</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>1.2370000000000001</v>
+      </c>
+      <c r="E9">
+        <v>1.2010000000000001</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="H9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="J9">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="K9" s="4">
+        <f>AVERAGE(I9:J9)</f>
+        <v>0.34950000000000003</v>
+      </c>
+      <c r="L9">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="M9">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="N9" s="4">
+        <f>AVERAGE(L9:M9)</f>
+        <v>0.627</v>
+      </c>
+      <c r="O9">
+        <f>N9-K9</f>
+        <v>0.27749999999999997</v>
+      </c>
+      <c r="P9" s="5">
+        <f>O9/$I$5</f>
+        <v>7.3803191489361692</v>
+      </c>
+      <c r="Q9">
+        <f>(P9/1000000)/180.15/(20/1000000)</f>
+        <v>2.0483816677591363E-3</v>
+      </c>
+      <c r="R9" s="5">
+        <f>Q9*1000</f>
+        <v>2.0483816677591364</v>
+      </c>
+      <c r="S9">
+        <f>P9*(500/20)/51.8</f>
+        <v>3.5619300911854097</v>
       </c>
     </row>
   </sheetData>

--- a/atmung/Aufgabe2.xlsx
+++ b/atmung/Aufgabe2.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huyenanh/git_repos/PPP_Latex/atmung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5602444B-0FA9-A743-812C-08FAB27DD7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E8A230-B89B-E143-B6A3-B08E1F0BF3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1880" windowWidth="27560" windowHeight="16940" activeTab="1" xr2:uid="{2D897629-E6FF-2149-BD0B-B763647B8054}"/>
+    <workbookView xWindow="14820" yWindow="3460" windowWidth="15420" windowHeight="14360" xr2:uid="{2D897629-E6FF-2149-BD0B-B763647B8054}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="56">
   <si>
     <t>ß in mg/L</t>
   </si>
@@ -179,15 +181,43 @@
   <si>
     <t>µg Glucose pro mg frisch</t>
   </si>
+  <si>
+    <t>Sample 1</t>
+  </si>
+  <si>
+    <t>Sample 2</t>
+  </si>
+  <si>
+    <t>Standardkurve</t>
+  </si>
+  <si>
+    <t>conc in mM</t>
+  </si>
+  <si>
+    <t>E fit</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>0.981873564390845, 0.990406191260074, 0.9893408827189633, 0.989884369945701, 0.990204796017743, 0.9912852676560892, 0.9901471815550555, 0.9904419117355457, 0.9892324406106902, 0.9906269067813678</t>
+  </si>
+  <si>
+    <t>unsicherheit</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="#,##0.000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +233,12 @@
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri-Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF747474"/>
       <name val="Calibri-Light"/>
       <family val="2"/>
     </font>
@@ -239,19 +275,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF747474"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -328,6 +371,39 @@
                   <c:y val="-0.35438925533858584"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>ß(t) = -0.0089t + 6.6528</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>R² = 0.9983</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1012,6 +1088,39 @@
                   <c:y val="7.3591012308483944E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>ß(t) = -0.0015t + 5.4016</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>R² = 0.9943</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1495,6 +1604,39 @@
                   <c:y val="-0.22673002994157104"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>ß(t) = -0.0016t + 8.124</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>R² = 0.9898</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1972,6 +2114,39 @@
                   <c:y val="-0.17887870121444205"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>ß(t) = -0.0022t + 7.6853</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>R² = 0.9978</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2398,37 +2573,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -2470,7 +2615,6 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="20"/>
             <c:backward val="20"/>
             <c:intercept val="0"/>
             <c:dispRSqr val="1"/>
@@ -2478,10 +2622,43 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.5341207349081365E-3"/>
-                  <c:y val="-0.14856481481481482"/>
+                  <c:x val="-0.32157622616450054"/>
+                  <c:y val="-1.098901098901099E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                      <a:t>∆E= 0.0376 m</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                      <a:t>R² = 0.9868</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1600"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2495,7 +2672,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -2552,10 +2729,10 @@
                   <c:v>0.90500000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1475</c:v>
+                  <c:v>1.0620000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2190000000000001</c:v>
+                  <c:v>1.2370000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2582,6 +2759,7 @@
         <c:axId val="1029962639"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2599,6 +2777,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1600"/>
+                  <a:t>m(Glukose-Äquivalente) in µg</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2644,6 +2877,7 @@
         <c:axId val="1030209791"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2661,6 +2895,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1600"/>
+                  <a:t>Extinktion</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6043,8 +6332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2514CDF9-AD72-B64A-9ADA-7E898E419F24}">
   <dimension ref="B3:W59"/>
   <sheetViews>
-    <sheetView topLeftCell="F20" zoomScale="116" workbookViewId="0">
-      <selection activeCell="V57" sqref="V57"/>
+    <sheetView tabSelected="1" topLeftCell="E25" zoomScale="116" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6968,15 +7257,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A3DABD-87C4-2C44-A4EF-D010E01B8643}">
-  <dimension ref="B4:S9"/>
+  <dimension ref="B4:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="4" spans="2:19">
+    <row r="4" spans="2:20">
       <c r="C4" t="s">
         <v>34</v>
       </c>
@@ -6990,7 +7279,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="2:19">
+    <row r="5" spans="2:20">
       <c r="B5">
         <f>((C5*2/1000000)*180.15/1000)*1000000</f>
         <v>7.2060000000000013</v>
@@ -7013,13 +7302,13 @@
       </c>
       <c r="H5">
         <f>SLOPE(F5:F9,B5:B9)</f>
-        <v>3.0453788509575353E-2</v>
+        <v>2.9766860949208995E-2</v>
       </c>
       <c r="I5">
         <v>3.7600000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:19">
+    <row r="6" spans="2:20">
       <c r="B6">
         <f t="shared" ref="B6:B9" si="0">((C6*2/1000000)*180.15/1000)*1000000</f>
         <v>14.412000000000003</v>
@@ -7058,7 +7347,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="2:19">
+    <row r="7" spans="2:20">
       <c r="B7">
         <f t="shared" si="0"/>
         <v>21.618000000000002</v>
@@ -7099,7 +7388,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="2:19">
+    <row r="8" spans="2:20">
       <c r="B8">
         <f t="shared" si="0"/>
         <v>28.824000000000005</v>
@@ -7114,8 +7403,8 @@
         <v>1.2330000000000001</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
-        <v>1.1475</v>
+        <f>AVERAGE(D8:D8)</f>
+        <v>1.0620000000000001</v>
       </c>
       <c r="H8" t="s">
         <v>40</v>
@@ -7160,8 +7449,12 @@
         <f>(P8*(500/20))/41.5</f>
         <v>2.6675852345552418</v>
       </c>
+      <c r="T8">
+        <f>P8*(500/20)</f>
+        <v>110.70478723404253</v>
+      </c>
     </row>
-    <row r="9" spans="2:19">
+    <row r="9" spans="2:20">
       <c r="B9">
         <f t="shared" si="0"/>
         <v>36.03</v>
@@ -7176,8 +7469,8 @@
         <v>1.2010000000000001</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
-        <v>1.2190000000000001</v>
+        <f>AVERAGE(D9:D9)</f>
+        <v>1.2370000000000001</v>
       </c>
       <c r="H9" t="s">
         <v>41</v>
@@ -7221,10 +7514,194 @@
       <c r="S9">
         <f>P9*(500/20)/51.8</f>
         <v>3.5619300911854097</v>
+      </c>
+      <c r="T9">
+        <f>P9*(500/20)</f>
+        <v>184.50797872340422</v>
+      </c>
+    </row>
+    <row r="20" spans="17:17">
+      <c r="Q20" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66508F18-2156-C14A-ABAF-94EB7F21982F}">
+  <dimension ref="A2:I28"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:7">
+      <c r="B2">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="C2">
+        <f>0.16809/B2</f>
+        <v>1.0312269938650305</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="C3">
+        <f>0.09363/B2</f>
+        <v>0.5744171779141104</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10">
+        <v>0.2</v>
+      </c>
+      <c r="C10" s="6">
+        <v>3.3099999999999997E-2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10">
+        <v>0.16808999999999999</v>
+      </c>
+      <c r="G10">
+        <f>SQRT(((F10/(0.162)^2) *0.0019 )^2)</f>
+        <v>1.2169295839048924E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11">
+        <v>0.4</v>
+      </c>
+      <c r="C11" s="6">
+        <v>7.2997999999999993E-2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11">
+        <v>9.3632999999999994E-2</v>
+      </c>
+      <c r="G11">
+        <f>SQRT(((F11/(0.162)^2) *0.0019 )^2)</f>
+        <v>6.7787951531778686E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12">
+        <v>0.6</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.1075</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13">
+        <v>0.8</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.14430000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.15787599999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15">
+        <v>1.2</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.18584619999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16">
+        <v>1.4</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.22342999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17">
+        <v>1.6</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.25600000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18">
+        <v>1.8</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.29182000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.32322400000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="I28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1FCC1B7-FF08-2B4A-B2A7-D341648E313E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>